--- a/Project.xlsx
+++ b/Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasra\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F72F0-3A1D-43A1-9F9C-F16DA5B5B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6634F1EA-75D0-467E-9462-75EF1A936438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="10380" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7530,7 +7530,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -7610,7 +7610,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -8330,8 +8330,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -11896,8 +11896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11913,7 +11913,7 @@
     <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" customWidth="1"/>
     <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="41.26953125" customWidth="1"/>
   </cols>
@@ -12004,7 +12004,7 @@
         <v>1.3350209693650832</v>
       </c>
       <c r="O2">
-        <f>(E2/M2)*100000</f>
+        <f t="shared" ref="O2:O12" si="0">(E2/M2)*100000</f>
         <v>767.10728715898426</v>
       </c>
     </row>
@@ -12046,11 +12046,11 @@
         <v>1857446</v>
       </c>
       <c r="N3">
-        <f>(B3/M3)*100000</f>
+        <f t="shared" ref="N3:N34" si="1">(B3/M3)*100000</f>
         <v>2.6380309306434748</v>
       </c>
       <c r="O3">
-        <f>(E3/M3)*100000</f>
+        <f t="shared" si="0"/>
         <v>1065.97984544369</v>
       </c>
     </row>
@@ -12092,11 +12092,11 @@
         <v>6664269</v>
       </c>
       <c r="N4">
-        <f>(B4/M4)*100000</f>
+        <f t="shared" si="1"/>
         <v>0.6602374544004751</v>
       </c>
       <c r="O4">
-        <f>(E4/M4)*100000</f>
+        <f t="shared" si="0"/>
         <v>1045.8761493571164</v>
       </c>
     </row>
@@ -12138,11 +12138,11 @@
         <v>6455752</v>
       </c>
       <c r="N5">
-        <f>(B5/M5)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.5644962817654706</v>
       </c>
       <c r="O5">
-        <f>(E5/M5)*100000</f>
+        <f t="shared" si="0"/>
         <v>1008.4030489399222</v>
       </c>
     </row>
@@ -12184,11 +12184,11 @@
         <v>3819320</v>
       </c>
       <c r="N6">
-        <f>(B6/M6)*100000</f>
+        <f t="shared" si="1"/>
         <v>2.5397191123027136</v>
       </c>
       <c r="O6">
-        <f>(E6/M6)*100000</f>
+        <f t="shared" si="0"/>
         <v>1021.1241791732559</v>
       </c>
     </row>
@@ -12230,11 +12230,11 @@
         <v>12883029</v>
       </c>
       <c r="N7">
-        <f>(B7/M7)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.1332738597421459</v>
       </c>
       <c r="O7">
-        <f>(E7/M7)*100000</f>
+        <f t="shared" si="0"/>
         <v>969.49250056023311</v>
       </c>
     </row>
@@ -12276,11 +12276,11 @@
         <v>1853691</v>
       </c>
       <c r="N8">
-        <f>(B8/M8)*100000</f>
+        <f t="shared" si="1"/>
         <v>2.5894283351432357</v>
       </c>
       <c r="O8">
-        <f>(E8/M8)*100000</f>
+        <f t="shared" si="0"/>
         <v>1310.8980946662632</v>
       </c>
     </row>
@@ -12322,11 +12322,11 @@
         <v>915518</v>
       </c>
       <c r="N9">
-        <f>(B9/M9)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.5291889400317635</v>
       </c>
       <c r="O9">
-        <f>(E9/M9)*100000</f>
+        <f t="shared" si="0"/>
         <v>862.89947330363793</v>
       </c>
     </row>
@@ -12368,11 +12368,11 @@
         <v>1395199</v>
       </c>
       <c r="N10">
-        <f>(B10/M10)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.4334872659742446</v>
       </c>
       <c r="O10">
-        <f>(E10/M10)*100000</f>
+        <f t="shared" si="0"/>
         <v>981.93877719235741</v>
       </c>
     </row>
@@ -12414,11 +12414,11 @@
         <v>3076844</v>
       </c>
       <c r="N11">
-        <f>(B11/M11)*100000</f>
+        <f t="shared" si="1"/>
         <v>3.152581021332248</v>
       </c>
       <c r="O11">
-        <f>(E11/M11)*100000</f>
+        <f t="shared" si="0"/>
         <v>1482.0380883788714</v>
       </c>
     </row>
@@ -12460,11 +12460,11 @@
         <v>6556344</v>
       </c>
       <c r="N12">
-        <f>(B12/M12)*100000</f>
+        <f t="shared" si="1"/>
         <v>0.91514417181282737</v>
       </c>
       <c r="O12">
-        <f>(E12/M12)*100000</f>
+        <f t="shared" si="0"/>
         <v>829.73071577696339</v>
       </c>
     </row>
@@ -12500,7 +12500,7 @@
         <v>19302016</v>
       </c>
       <c r="N13">
-        <f>(B13/M13)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.1294157045564568</v>
       </c>
     </row>
@@ -12542,7 +12542,7 @@
         <v>8187456</v>
       </c>
       <c r="N14">
-        <f>(B14/M14)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.8198571082397268</v>
       </c>
       <c r="O14">
@@ -12588,7 +12588,7 @@
         <v>6026027</v>
       </c>
       <c r="N15">
-        <f>(B15/M15)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.4603319898832183</v>
       </c>
       <c r="O15">
@@ -12634,7 +12634,7 @@
         <v>9898289</v>
       </c>
       <c r="N16">
-        <f>(B16/M16)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.3840775915918397</v>
       </c>
       <c r="O16">
@@ -12680,7 +12680,7 @@
         <v>6538989</v>
       </c>
       <c r="N17">
-        <f>(B17/M17)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.7586816555280946</v>
       </c>
       <c r="O17">
@@ -12726,7 +12726,7 @@
         <v>9751810</v>
       </c>
       <c r="N18">
-        <f>(B18/M18)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.4971579634960073</v>
       </c>
       <c r="O18">
@@ -12766,7 +12766,7 @@
         <v>1324677</v>
       </c>
       <c r="N19">
-        <f>(B19/M19)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.056861408479199</v>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
         <v>2087715</v>
       </c>
       <c r="N20">
-        <f>(B20/M20)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.8680710729194356</v>
       </c>
       <c r="O20">
@@ -12854,7 +12854,7 @@
         <v>12769123</v>
       </c>
       <c r="N21">
-        <f>(B21/M21)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.5192899308746577</v>
       </c>
       <c r="O21">
@@ -12891,7 +12891,7 @@
         <v>833859</v>
       </c>
       <c r="N22">
-        <f>(B22/M22)*100000</f>
+        <f t="shared" si="1"/>
         <v>3.717654903287007</v>
       </c>
     </row>
@@ -12933,11 +12933,11 @@
         <v>19574362</v>
       </c>
       <c r="N23">
-        <f>(B23/M23)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.0319621145251121</v>
       </c>
       <c r="O23">
-        <f>(E23/M23)*100000</f>
+        <f t="shared" ref="O23:O34" si="2">(E23/M23)*100000</f>
         <v>747.4062245298212</v>
       </c>
     </row>
@@ -12979,11 +12979,11 @@
         <v>2854146</v>
       </c>
       <c r="N24">
-        <f>(B24/M24)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.3664332518378528</v>
       </c>
       <c r="O24">
-        <f>(E24/M24)*100000</f>
+        <f t="shared" si="2"/>
         <v>970.51797630534668</v>
       </c>
     </row>
@@ -13025,11 +13025,11 @@
         <v>1328094</v>
       </c>
       <c r="N25">
-        <f>(B25/M25)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.4306216276859922</v>
       </c>
       <c r="O25">
-        <f>(E25/M25)*100000</f>
+        <f t="shared" si="2"/>
         <v>1596.2725529970016</v>
       </c>
     </row>
@@ -13071,11 +13071,11 @@
         <v>1004168</v>
       </c>
       <c r="N26">
-        <f>(B26/M26)*100000</f>
+        <f t="shared" si="1"/>
         <v>3.3858876203981807</v>
       </c>
       <c r="O26">
-        <f>(E26/M26)*100000</f>
+        <f t="shared" si="2"/>
         <v>1324.4795691557588</v>
       </c>
     </row>
@@ -13117,11 +13117,11 @@
         <v>626361</v>
       </c>
       <c r="N27">
-        <f>(B27/M27)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.7561757516831347</v>
       </c>
       <c r="O27">
-        <f>(E27/M27)*100000</f>
+        <f t="shared" si="2"/>
         <v>1580.5581765148215</v>
       </c>
     </row>
@@ -13163,11 +13163,11 @@
         <v>2952876</v>
       </c>
       <c r="N28">
-        <f>(B28/M28)*100000</f>
+        <f t="shared" si="1"/>
         <v>2.1335132257500824</v>
       </c>
       <c r="O28">
-        <f>(E28/M28)*100000</f>
+        <f t="shared" si="2"/>
         <v>900.81669531670138</v>
       </c>
     </row>
@@ -13209,11 +13209,11 @@
         <v>2744670</v>
       </c>
       <c r="N29">
-        <f>(B29/M29)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.5302386079200778</v>
       </c>
       <c r="O29">
-        <f>(E29/M29)*100000</f>
+        <f t="shared" si="2"/>
         <v>1180.4697832526315</v>
       </c>
     </row>
@@ -13255,11 +13255,11 @@
         <v>4387865</v>
       </c>
       <c r="N30">
-        <f>(B30/M30)*100000</f>
+        <f t="shared" si="1"/>
         <v>2.0739015443729469</v>
       </c>
       <c r="O30">
-        <f>(E30/M30)*100000</f>
+        <f t="shared" si="2"/>
         <v>1114.4372035146935</v>
       </c>
     </row>
@@ -13301,11 +13301,11 @@
         <v>5888375</v>
       </c>
       <c r="N31">
-        <f>(B31/M31)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.222748211518458</v>
       </c>
       <c r="O31">
-        <f>(E31/M31)*100000</f>
+        <f t="shared" si="2"/>
         <v>881.39766913622191</v>
       </c>
     </row>
@@ -13347,11 +13347,11 @@
         <v>4816632</v>
       </c>
       <c r="N32">
-        <f>(B32/M32)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.7439571883423934</v>
       </c>
       <c r="O32">
-        <f>(E32/M32)*100000</f>
+        <f t="shared" si="2"/>
         <v>855.36947809174546</v>
       </c>
     </row>
@@ -13393,11 +13393,11 @@
         <v>3595211</v>
       </c>
       <c r="N33">
-        <f>(B33/M33)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.001332049773991</v>
       </c>
       <c r="O33">
-        <f>(E33/M33)*100000</f>
+        <f t="shared" si="2"/>
         <v>1218.2873272250224</v>
       </c>
     </row>
@@ -13439,11 +13439,11 @@
         <v>3900102</v>
       </c>
       <c r="N34">
-        <f>(B34/M34)*100000</f>
+        <f t="shared" si="1"/>
         <v>1.1025352670263495</v>
       </c>
       <c r="O34">
-        <f>(E34/M34)*100000</f>
+        <f t="shared" si="2"/>
         <v>1099.971231521637</v>
       </c>
     </row>
@@ -13479,7 +13479,7 @@
         <v>5193660</v>
       </c>
       <c r="N35">
-        <f>(B35/M35)*100000</f>
+        <f t="shared" ref="N35:N66" si="3">(B35/M35)*100000</f>
         <v>1.5788480570541774</v>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
         <v>11550971</v>
       </c>
       <c r="N36">
-        <f>(B36/M36)*100000</f>
+        <f t="shared" si="3"/>
         <v>1.3938222163314236</v>
       </c>
       <c r="O36">
@@ -13567,7 +13567,7 @@
         <v>576656</v>
       </c>
       <c r="N37">
-        <f>(B37/M37)*100000</f>
+        <f t="shared" si="3"/>
         <v>6.0694764296218198</v>
       </c>
       <c r="O37">
@@ -13613,7 +13613,7 @@
         <v>5377500</v>
       </c>
       <c r="N38">
-        <f>(B38/M38)*100000</f>
+        <f t="shared" si="3"/>
         <v>1.3017201301720129</v>
       </c>
       <c r="O38">
@@ -13659,7 +13659,7 @@
         <v>2886024</v>
       </c>
       <c r="N39">
-        <f>(B39/M39)*100000</f>
+        <f t="shared" si="3"/>
         <v>2.6333807341865487</v>
       </c>
       <c r="O39">
@@ -13699,7 +13699,7 @@
         <v>1595910</v>
       </c>
       <c r="N40">
-        <f>(B40/M40)*100000</f>
+        <f t="shared" si="3"/>
         <v>1.1905433263780538</v>
       </c>
     </row>
@@ -13741,7 +13741,7 @@
         <v>6898599</v>
       </c>
       <c r="N41">
-        <f>(B41/M41)*100000</f>
+        <f t="shared" si="3"/>
         <v>0.97121169095348203</v>
       </c>
       <c r="O41">
@@ -13787,7 +13787,7 @@
         <v>5720825</v>
       </c>
       <c r="N42">
-        <f>(B42/M42)*100000</f>
+        <f t="shared" si="3"/>
         <v>1.9927195815288878</v>
       </c>
       <c r="O42">
@@ -13827,7 +13827,7 @@
         <v>2984599</v>
       </c>
       <c r="N43">
-        <f>(B43/M43)*100000</f>
+        <f t="shared" si="3"/>
         <v>2.1108363301066575</v>
       </c>
     </row>
@@ -13869,7 +13869,7 @@
         <v>4602067</v>
       </c>
       <c r="N44">
-        <f>(B44/M44)*100000</f>
+        <f t="shared" si="3"/>
         <v>2.5206065013829657</v>
       </c>
       <c r="O44">
@@ -13915,7 +13915,7 @@
         <v>9903580</v>
       </c>
       <c r="N45">
-        <f>(B45/M45)*100000</f>
+        <f t="shared" si="3"/>
         <v>1.0198332320231673</v>
       </c>
       <c r="O45">
@@ -13955,7 +13955,7 @@
         <v>1054893</v>
       </c>
       <c r="N46">
-        <f>(B46/M46)*100000</f>
+        <f t="shared" si="3"/>
         <v>0.75837075419023547</v>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
         <v>730810</v>
       </c>
       <c r="N47">
-        <f>(B47/M47)*100000</f>
+        <f t="shared" si="3"/>
         <v>4.2418686115406192</v>
       </c>
       <c r="O47">
@@ -14043,7 +14043,7 @@
         <v>8845671</v>
       </c>
       <c r="N48">
-        <f>(B48/M48)*100000</f>
+        <f t="shared" si="3"/>
         <v>1.0400567690116442</v>
       </c>
       <c r="O48">
@@ -14083,7 +14083,7 @@
         <v>702227</v>
       </c>
       <c r="N49">
-        <f>(B49/M49)*100000</f>
+        <f t="shared" si="3"/>
         <v>9.2562661361639478</v>
       </c>
     </row>
@@ -14125,7 +14125,7 @@
         <v>26084120</v>
       </c>
       <c r="N50">
-        <f>(B50/M50)*100000</f>
+        <f t="shared" si="3"/>
         <v>2.05489010171706</v>
       </c>
       <c r="O50">
@@ -14171,7 +14171,7 @@
         <v>37944551</v>
       </c>
       <c r="N51">
-        <f>(B51/M51)*100000</f>
+        <f t="shared" si="3"/>
         <v>0.98828419395448897</v>
       </c>
       <c r="O51">
@@ -14218,7 +14218,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -14686,7 +14686,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
@@ -14925,7 +14925,7 @@
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15690,12 +15690,12 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -16158,12 +16158,12 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16376,27 +16376,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B522D4-65BE-4502-B748-D95A03521A15}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
